--- a/exec/feedback of written testcases - symlex windows/test_cases/signup-21 march/signup_password_field.xlsx
+++ b/exec/feedback of written testcases - symlex windows/test_cases/signup-21 march/signup_password_field.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\signup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\feedback of written testcases - symlex windows\test_cases\signup-21 march\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CEAC54-2944-4443-A92E-FBC380D1B600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB36172-FD39-493C-BB4B-11544B83D04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signup_password" sheetId="1" r:id="rId1"/>
+    <sheet name="test_data_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="137">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -490,12 +491,96 @@
 5. enter static valid value in the username and confirm password field.
 4.  try submit after entering same password in confirm password field input</t>
   </si>
+  <si>
+    <t>S. no.</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>max_allowed_characters</t>
+  </si>
+  <si>
+    <t>abc def</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>"PaSsWoRd123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Password123"</t>
+  </si>
+  <si>
+    <t>P@ssw0rd!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> " Password123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Password123 "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "P@sswørd123"</t>
+  </si>
+  <si>
+    <t>Pa$$w0rd!</t>
+  </si>
+  <si>
+    <t>Password@2023</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>"password123!!"</t>
+  </si>
+  <si>
+    <t>"1234567890"</t>
+  </si>
+  <si>
+    <t>username123</t>
+  </si>
+  <si>
+    <t>"2024-01-24"</t>
+  </si>
+  <si>
+    <t>"password123"</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert('Hello World');&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>" password123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "password123 "</t>
+  </si>
+  <si>
+    <t>0000password</t>
+  </si>
+  <si>
+    <t>SymlexVPN@2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Hello 👋🌎"</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -540,6 +625,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -556,13 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,10 +780,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -766,11 +868,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
@@ -1592,9 +1703,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1751,14 +1862,14 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1798,7 +1909,7 @@
       <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -2711,7 +2822,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>79</v>
       </c>
@@ -29678,4 +29789,247 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E389B-4F49-422A-9D51-5C3A069B3B37}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="33.85546875" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{301141A2-E7F5-497E-80BA-6A1FD222F548}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{72F3E6A4-3F06-4696-B7B9-A20702A4B2D9}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{4692651F-2D4E-4797-94EB-B4651AD83A1E}"/>
+    <hyperlink ref="B26" r:id="rId4" xr:uid="{155ADD99-74E2-45D0-AC48-852C14137B39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>